--- a/random_excels/competition_04.xlsx
+++ b/random_excels/competition_04.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{171F2B32-C10E-48FB-908C-7AC42A52BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C22A8A-97C0-4BCC-B6BD-FF6714EB95B1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{171F2B32-C10E-48FB-908C-7AC42A52BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64BD2263-B96A-4919-BCF7-DD1D6450331B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{DE078912-3FCA-423E-8C45-BC0DE6C35042}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DE078912-3FCA-423E-8C45-BC0DE6C35042}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>8495562.000000</t>
-  </si>
-  <si>
-    <t>9185196.000000</t>
-  </si>
-  <si>
-    <t>9725376.000000</t>
-  </si>
-  <si>
-    <t>8885806.000000</t>
-  </si>
-  <si>
-    <t>9964558.000000</t>
-  </si>
-  <si>
-    <t>8885275.000000</t>
-  </si>
-  <si>
-    <t>9965579.000000</t>
-  </si>
-  <si>
-    <t>9185155.000000</t>
-  </si>
-  <si>
-    <t>8885860.000000</t>
-  </si>
-  <si>
-    <t>10355498.000000</t>
-  </si>
-  <si>
-    <t>9845595.000000</t>
-  </si>
-  <si>
-    <t>9395757.000000</t>
-  </si>
-  <si>
-    <t>9755576.000000</t>
-  </si>
-  <si>
-    <t>9665563.000000</t>
-  </si>
-  <si>
-    <t>10385384.000000</t>
-  </si>
-  <si>
-    <t>9336316.000000</t>
-  </si>
-  <si>
-    <t>9515843.000000</t>
-  </si>
-  <si>
-    <t>9035151.000000</t>
-  </si>
-  <si>
-    <t>8524748.000000</t>
-  </si>
-  <si>
-    <t>10234755.000000</t>
-  </si>
-  <si>
-    <t>9215166.000000</t>
-  </si>
-  <si>
-    <t>9304827.000000</t>
-  </si>
-  <si>
-    <t>9424980.000000</t>
-  </si>
-  <si>
-    <t>9215612.000000</t>
-  </si>
-  <si>
-    <t>8735480.000000</t>
-  </si>
-  <si>
-    <t>9635000.000000</t>
-  </si>
-  <si>
-    <t>10595429.000000</t>
-  </si>
-  <si>
-    <t>9755380.000000</t>
-  </si>
-  <si>
-    <t>9785337.000000</t>
-  </si>
-  <si>
-    <t>9695390.000000</t>
-  </si>
-  <si>
-    <t>9725300.000000</t>
-  </si>
-  <si>
-    <t>8705155.000000</t>
-  </si>
-  <si>
-    <t>10355104.000000</t>
-  </si>
-  <si>
-    <t>10535456.000000</t>
-  </si>
-  <si>
-    <t>9635731.000000</t>
-  </si>
-  <si>
-    <t>10174798.000000</t>
-  </si>
-  <si>
-    <t>9964902.000000</t>
-  </si>
-  <si>
-    <t>10445067.000000</t>
-  </si>
-  <si>
-    <t>9335973.000000</t>
-  </si>
-  <si>
-    <t>9485694.000000</t>
-  </si>
-  <si>
-    <t>8525395.000000</t>
-  </si>
-  <si>
-    <t>10504658.000000</t>
-  </si>
-  <si>
-    <t>9485223.000000</t>
-  </si>
-  <si>
-    <t>10264763.000000</t>
-  </si>
-  <si>
-    <t>10234748.000000</t>
-  </si>
-  <si>
-    <t>8855449.000000</t>
-  </si>
-  <si>
-    <t>9605484.000000</t>
-  </si>
-  <si>
-    <t>9544564.000000</t>
-  </si>
-  <si>
-    <t>9365266.000000</t>
-  </si>
-  <si>
-    <t>9455257.000000</t>
-  </si>
-  <si>
-    <t>8765946.000000</t>
-  </si>
-  <si>
-    <t>9366023.000000</t>
-  </si>
-  <si>
-    <t>9365992.000000</t>
-  </si>
-  <si>
-    <t>9934877.000000</t>
-  </si>
-  <si>
-    <t>10263755.000000</t>
-  </si>
-  <si>
-    <t>9905705.000000</t>
-  </si>
-  <si>
-    <t>9784756.000000</t>
-  </si>
-  <si>
-    <t>9695891.000000</t>
-  </si>
-  <si>
-    <t>10175658.000000</t>
-  </si>
-  <si>
-    <t>8944698.000000</t>
-  </si>
-  <si>
-    <t>9875374.000000</t>
-  </si>
-  <si>
-    <t>9695195.000000</t>
-  </si>
-  <si>
-    <t>9575298.000000</t>
-  </si>
-  <si>
-    <t>9935237.000000</t>
-  </si>
-  <si>
-    <t>9485319.000000</t>
-  </si>
-  <si>
-    <t>9754857.000000</t>
-  </si>
-  <si>
-    <t>10024646.000000</t>
-  </si>
-  <si>
-    <t>10355663.000000</t>
-  </si>
-  <si>
-    <t>9155619.000000</t>
-  </si>
-  <si>
-    <t>9425297.000000</t>
-  </si>
-  <si>
-    <t>9455549.000000</t>
-  </si>
-  <si>
-    <t>9485821.000000</t>
-  </si>
-  <si>
-    <t>9125276.000000</t>
-  </si>
-  <si>
-    <t>9664722.000000</t>
-  </si>
-  <si>
-    <t>9306163.000000</t>
-  </si>
-  <si>
-    <t>9005148.000000</t>
-  </si>
-  <si>
-    <t>9395460.000000</t>
-  </si>
-  <si>
-    <t>9755225.000000</t>
-  </si>
-  <si>
-    <t>9815408.000000</t>
-  </si>
-  <si>
-    <t>10145300.000000</t>
-  </si>
-  <si>
-    <t>8375737.000000</t>
-  </si>
-  <si>
-    <t>9155188.000000</t>
-  </si>
-  <si>
-    <t>9306170.000000</t>
-  </si>
-  <si>
-    <t>10115267.000000</t>
-  </si>
-  <si>
-    <t>9486572.000000</t>
-  </si>
-  <si>
-    <t>10414990.000000</t>
-  </si>
-  <si>
-    <t>10085730.000000</t>
-  </si>
-  <si>
-    <t>9215510.000000</t>
-  </si>
-  <si>
-    <t>8886083.000000</t>
-  </si>
-  <si>
-    <t>9844938.000000</t>
-  </si>
-  <si>
-    <t>9065918.000000</t>
-  </si>
-  <si>
-    <t>9245613.000000</t>
-  </si>
-  <si>
-    <t>9275840.000000</t>
-  </si>
-  <si>
-    <t>9275915.000000</t>
-  </si>
-  <si>
-    <t>9485525.000000</t>
-  </si>
-  <si>
-    <t>8495551.000000</t>
-  </si>
-  <si>
-    <t>9245356.000000</t>
-  </si>
-  <si>
-    <t>9875181.000000</t>
-  </si>
-  <si>
-    <t>9305830.000000</t>
-  </si>
-  <si>
-    <t>8795158.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -421,15 +120,12 @@
   <si>
     <t>odchylenie</t>
   </si>
-  <si>
-    <t>\</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,22 +134,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -461,28 +158,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -502,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6314612-5685-4554-A153-25CEC84D3C0C}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="O73" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T101"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,7 +594,7 @@
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>43</v>
       </c>
@@ -1029,11 +714,11 @@
       <c r="S2">
         <v>944</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>8495562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>52</v>
       </c>
@@ -1091,11 +776,11 @@
       <c r="S3">
         <v>898</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>9185196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>39</v>
       </c>
@@ -1153,11 +838,18 @@
       <c r="S4">
         <v>676</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>9725376</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <f>MAX(T2:T101)</f>
+        <v>10595429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>36</v>
       </c>
@@ -1215,11 +907,18 @@
       <c r="S5">
         <v>855</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>8885806</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f>MIN(T2:T101)</f>
+        <v>8375737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38</v>
       </c>
@@ -1277,11 +976,18 @@
       <c r="S6">
         <v>722</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>9964558</v>
+      </c>
+      <c r="V6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f>AVERAGEA(T2:T101)</f>
+        <v>9543870.9100000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>44</v>
       </c>
@@ -1339,11 +1045,18 @@
       <c r="S7">
         <v>827</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>8885275</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <f>STDEVA(T2:T101)</f>
+        <v>518307.38126209372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44</v>
       </c>
@@ -1401,11 +1114,11 @@
       <c r="S8">
         <v>886</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>9965579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>64</v>
       </c>
@@ -1463,11 +1176,11 @@
       <c r="S9">
         <v>951</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>9185155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>37</v>
       </c>
@@ -1525,11 +1238,11 @@
       <c r="S10">
         <v>785</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>8885860</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48</v>
       </c>
@@ -1587,11 +1300,11 @@
       <c r="S11">
         <v>825</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>10355498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>48</v>
       </c>
@@ -1649,11 +1362,11 @@
       <c r="S12">
         <v>794</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>9845595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45</v>
       </c>
@@ -1711,11 +1424,11 @@
       <c r="S13">
         <v>930</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>9395757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>38</v>
       </c>
@@ -1773,11 +1486,11 @@
       <c r="S14">
         <v>827</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>9755576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>41</v>
       </c>
@@ -1835,11 +1548,11 @@
       <c r="S15">
         <v>773</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>9665563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>42</v>
       </c>
@@ -1897,8 +1610,8 @@
       <c r="S16">
         <v>753</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>10385384</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1959,8 +1672,8 @@
       <c r="S17">
         <v>885</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>9336316</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -2021,8 +1734,8 @@
       <c r="S18">
         <v>827</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>9515843</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2083,8 +1796,8 @@
       <c r="S19">
         <v>838</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>9035151</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2145,8 +1858,8 @@
       <c r="S20">
         <v>926</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>8524748</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2207,8 +1920,8 @@
       <c r="S21">
         <v>777</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>10234755</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2269,8 +1982,8 @@
       <c r="S22">
         <v>823</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>9215166</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2331,8 +2044,8 @@
       <c r="S23">
         <v>816</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>9304827</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2393,8 +2106,8 @@
       <c r="S24">
         <v>874</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>9424980</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2455,8 +2168,8 @@
       <c r="S25">
         <v>742</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>9215612</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2517,8 +2230,8 @@
       <c r="S26">
         <v>893</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>8735480</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2579,8 +2292,8 @@
       <c r="S27">
         <v>823</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>9635000</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2641,8 +2354,8 @@
       <c r="S28">
         <v>827</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>10595429</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2703,8 +2416,8 @@
       <c r="S29">
         <v>851</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>9755380</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2765,8 +2478,8 @@
       <c r="S30">
         <v>775</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>9785337</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2827,8 +2540,8 @@
       <c r="S31">
         <v>844</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>9695390</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2889,8 +2602,8 @@
       <c r="S32">
         <v>895</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>9725300</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2951,8 +2664,8 @@
       <c r="S33">
         <v>887</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>8705155</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -3013,8 +2726,8 @@
       <c r="S34">
         <v>744</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>10355104</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3075,8 +2788,8 @@
       <c r="S35">
         <v>836</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>10535456</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3137,8 +2850,8 @@
       <c r="S36">
         <v>961</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>9635731</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3199,8 +2912,8 @@
       <c r="S37">
         <v>747</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>10174798</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3261,8 +2974,8 @@
       <c r="S38">
         <v>787</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>9964902</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3323,8 +3036,8 @@
       <c r="S39">
         <v>780</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>10445067</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3385,8 +3098,8 @@
       <c r="S40">
         <v>801</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>9335973</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3447,8 +3160,8 @@
       <c r="S41">
         <v>888</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>9485694</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3509,8 +3222,8 @@
       <c r="S42">
         <v>864</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>8525395</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3571,8 +3284,8 @@
       <c r="S43">
         <v>820</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>10504658</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3633,8 +3346,8 @@
       <c r="S44">
         <v>991</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>9485223</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3695,8 +3408,8 @@
       <c r="S45">
         <v>943</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>10264763</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3757,8 +3470,8 @@
       <c r="S46">
         <v>751</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>10234748</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3819,8 +3532,8 @@
       <c r="S47">
         <v>833</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>8855449</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3881,8 +3594,8 @@
       <c r="S48">
         <v>1037</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>9605484</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3943,8 +3656,8 @@
       <c r="S49">
         <v>767</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>9544564</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -4005,8 +3718,8 @@
       <c r="S50">
         <v>894</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>9365266</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4067,8 +3780,8 @@
       <c r="S51">
         <v>892</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>9455257</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4129,8 +3842,8 @@
       <c r="S52">
         <v>877</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>8765946</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4191,8 +3904,8 @@
       <c r="S53">
         <v>855</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>9366023</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4253,8 +3966,8 @@
       <c r="S54">
         <v>933</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>9365992</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4315,8 +4028,8 @@
       <c r="S55">
         <v>742</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>9934877</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4377,8 +4090,8 @@
       <c r="S56">
         <v>689</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>10263755</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4439,8 +4152,8 @@
       <c r="S57">
         <v>727</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>9905705</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4501,8 +4214,8 @@
       <c r="S58">
         <v>830</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>9784756</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4563,8 +4276,8 @@
       <c r="S59">
         <v>870</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>9695891</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4625,8 +4338,8 @@
       <c r="S60">
         <v>709</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>10175658</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4687,8 +4400,8 @@
       <c r="S61">
         <v>800</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>8944698</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4749,8 +4462,8 @@
       <c r="S62">
         <v>708</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>9875374</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4811,8 +4524,8 @@
       <c r="S63">
         <v>904</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>9695195</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4873,8 +4586,8 @@
       <c r="S64">
         <v>800</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>9575298</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4935,8 +4648,8 @@
       <c r="S65">
         <v>828</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>9935237</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4997,8 +4710,8 @@
       <c r="S66">
         <v>819</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>9485319</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5059,8 +4772,8 @@
       <c r="S67">
         <v>758</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>9754857</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5121,8 +4834,8 @@
       <c r="S68">
         <v>806</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>10024646</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5183,8 +4896,8 @@
       <c r="S69">
         <v>906</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>10355663</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5245,8 +4958,8 @@
       <c r="S70">
         <v>889</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>9155619</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5307,8 +5020,8 @@
       <c r="S71">
         <v>874</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>9425297</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5369,8 +5082,8 @@
       <c r="S72">
         <v>905</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>9455549</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5431,8 +5144,8 @@
       <c r="S73">
         <v>799</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>9485821</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5493,8 +5206,8 @@
       <c r="S74">
         <v>802</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>9125276</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5555,8 +5268,8 @@
       <c r="S75">
         <v>859</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>9664722</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5617,8 +5330,8 @@
       <c r="S76">
         <v>916</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>9306163</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5679,8 +5392,8 @@
       <c r="S77">
         <v>843</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>9005148</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5741,8 +5454,8 @@
       <c r="S78">
         <v>829</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>9395460</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5803,8 +5516,8 @@
       <c r="S79">
         <v>786</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>9755225</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5865,8 +5578,8 @@
       <c r="S80">
         <v>768</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>9815408</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5927,8 +5640,8 @@
       <c r="S81">
         <v>737</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>10145300</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5989,8 +5702,8 @@
       <c r="S82">
         <v>946</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>8375737</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6051,8 +5764,8 @@
       <c r="S83">
         <v>724</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>9155188</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6113,8 +5826,8 @@
       <c r="S84">
         <v>962</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>9306170</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6175,8 +5888,8 @@
       <c r="S85">
         <v>811</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>10115267</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6237,8 +5950,8 @@
       <c r="S86">
         <v>876</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>9486572</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6299,8 +6012,8 @@
       <c r="S87">
         <v>815</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>10414990</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6361,8 +6074,8 @@
       <c r="S88">
         <v>891</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>10085730</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6423,8 +6136,8 @@
       <c r="S89">
         <v>807</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>9215510</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6485,8 +6198,8 @@
       <c r="S90">
         <v>907</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>8886083</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6547,8 +6260,8 @@
       <c r="S91">
         <v>815</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>9844938</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6609,8 +6322,8 @@
       <c r="S92">
         <v>818</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>9065918</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6671,8 +6384,8 @@
       <c r="S93">
         <v>820</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>9245613</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6733,8 +6446,8 @@
       <c r="S94">
         <v>843</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>9275840</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6795,8 +6508,8 @@
       <c r="S95">
         <v>945</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>9275915</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6857,8 +6570,8 @@
       <c r="S96">
         <v>968</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>9485525</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6919,8 +6632,8 @@
       <c r="S97">
         <v>922</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>8495551</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6981,8 +6694,8 @@
       <c r="S98">
         <v>828</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>9245356</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7043,8 +6756,8 @@
       <c r="S99">
         <v>778</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>9875181</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7105,8 +6818,8 @@
       <c r="S100">
         <v>857</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>9305830</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7167,561 +6880,16 @@
       <c r="S101">
         <v>894</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>8795158</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6F762A-83CF-4E7A-BEC8-C493E33F243F}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>8495562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>9185196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>9725376</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <f>MAX(A1:A100)</f>
-        <v>10595429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>8885806</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4">
-        <f>MIN(A1:A100)</f>
-        <v>8375737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>9964558</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGEA(A1:A100)</f>
-        <v>9543870.9100000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>8885275</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6">
-        <f>STDEVA(A1:A100)</f>
-        <v>518307.38126209372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>9965579</v>
-      </c>
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>9185155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8885860</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>10355498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9845595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9395757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>9755576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>9665563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>10385384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>9336316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>9515843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>9035151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>8524748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>10234755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>9215166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>9304827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>9424980</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>9215612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>8735480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>9635000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>10595429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>9755380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>9785337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>9695390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>9725300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>8705155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>10355104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>10535456</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>9635731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>10174798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>9964902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>10445067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>9335973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>9485694</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>8525395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>10504658</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>9485223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>10264763</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>10234748</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>8855449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>9605484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>9544564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>9365266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>9455257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>8765946</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>9366023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>9365992</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>9934877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>10263755</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>9905705</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>9784756</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>9695891</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>10175658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>8944698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>9875374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>9695195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>9575298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>9935237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>9485319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>9754857</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>10024646</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>10355663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>9155619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>9425297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>9455549</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>9485821</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>9125276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>9664722</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>9306163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>9005148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>9395460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>9755225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>9815408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>10145300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>8375737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>9155188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>9306170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>10115267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>9486572</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>10414990</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>10085730</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>9215510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>8886083</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>9844938</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>9065918</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>9245613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>9275840</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>9275915</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>9485525</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>8495551</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>9245356</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>9875181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>9305830</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>8795158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
